--- a/边缘座标_Doc/座标记录表.xlsx
+++ b/边缘座标_Doc/座标记录表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Work\Project\CCD檢測\圖資收集、標記\工作說明\边缘座标_工作說明\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Work\Project\CCD檢測\圖資收集、標記\工作項目\工作說明\边缘座标_Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -66,7 +66,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -86,6 +86,21 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -133,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -148,14 +163,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,41 +455,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="6.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.77734375" customWidth="1"/>
     <col min="3" max="9" width="8.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -494,8 +512,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+    <row r="3" spans="1:9">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
@@ -507,8 +525,8 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+    <row r="4" spans="1:9">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
@@ -520,8 +538,8 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+    <row r="5" spans="1:9">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
       <c r="B5" s="3"/>
@@ -533,8 +551,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+    <row r="6" spans="1:9">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
       <c r="B6" s="3"/>
@@ -546,8 +564,8 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+    <row r="7" spans="1:9">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
       <c r="B7" s="3"/>
@@ -559,8 +577,8 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+    <row r="8" spans="1:9">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
       <c r="B8" s="3"/>
@@ -572,8 +590,8 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+    <row r="9" spans="1:9">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
       <c r="B9" s="3"/>
@@ -585,8 +603,8 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+    <row r="10" spans="1:9">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
       <c r="B10" s="3"/>
@@ -598,8 +616,8 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+    <row r="11" spans="1:9">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
       <c r="B11" s="3"/>
@@ -611,8 +629,8 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+    <row r="12" spans="1:9">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
       <c r="B12" s="3"/>
@@ -624,8 +642,8 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+    <row r="13" spans="1:9">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
       <c r="B13" s="3"/>
@@ -637,8 +655,8 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+    <row r="14" spans="1:9">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
       <c r="B14" s="3"/>
@@ -650,8 +668,8 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+    <row r="15" spans="1:9">
+      <c r="A15" s="9">
         <v>13</v>
       </c>
       <c r="B15" s="3"/>
@@ -663,8 +681,8 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+    <row r="16" spans="1:9">
+      <c r="A16" s="9">
         <v>14</v>
       </c>
       <c r="B16" s="3"/>
@@ -676,8 +694,8 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+    <row r="17" spans="1:9">
+      <c r="A17" s="9">
         <v>15</v>
       </c>
       <c r="B17" s="3"/>
@@ -689,8 +707,8 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+    <row r="18" spans="1:9">
+      <c r="A18" s="9">
         <v>16</v>
       </c>
       <c r="B18" s="3"/>
@@ -702,8 +720,8 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+    <row r="19" spans="1:9">
+      <c r="A19" s="9">
         <v>17</v>
       </c>
       <c r="B19" s="3"/>
@@ -715,8 +733,8 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+    <row r="20" spans="1:9">
+      <c r="A20" s="9">
         <v>18</v>
       </c>
       <c r="B20" s="3"/>
@@ -728,8 +746,8 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+    <row r="21" spans="1:9">
+      <c r="A21" s="9">
         <v>19</v>
       </c>
       <c r="B21" s="3"/>
@@ -741,8 +759,8 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+    <row r="22" spans="1:9">
+      <c r="A22" s="9">
         <v>20</v>
       </c>
       <c r="B22" s="3"/>
@@ -754,8 +772,8 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+    <row r="23" spans="1:9">
+      <c r="A23" s="9">
         <v>21</v>
       </c>
       <c r="B23" s="3"/>
@@ -767,8 +785,8 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+    <row r="24" spans="1:9">
+      <c r="A24" s="9">
         <v>22</v>
       </c>
       <c r="B24" s="3"/>
@@ -780,8 +798,8 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+    <row r="25" spans="1:9">
+      <c r="A25" s="9">
         <v>23</v>
       </c>
       <c r="B25" s="3"/>
@@ -793,8 +811,8 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+    <row r="26" spans="1:9">
+      <c r="A26" s="9">
         <v>24</v>
       </c>
       <c r="B26" s="3"/>
@@ -806,8 +824,8 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+    <row r="27" spans="1:9">
+      <c r="A27" s="9">
         <v>25</v>
       </c>
       <c r="B27" s="3"/>
@@ -819,8 +837,8 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+    <row r="28" spans="1:9">
+      <c r="A28" s="9">
         <v>26</v>
       </c>
       <c r="B28" s="3"/>
@@ -832,8 +850,8 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+    <row r="29" spans="1:9">
+      <c r="A29" s="9">
         <v>27</v>
       </c>
       <c r="B29" s="3"/>
@@ -845,8 +863,8 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+    <row r="30" spans="1:9">
+      <c r="A30" s="9">
         <v>28</v>
       </c>
       <c r="B30" s="3"/>
@@ -858,8 +876,8 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
+    <row r="31" spans="1:9">
+      <c r="A31" s="9">
         <v>29</v>
       </c>
       <c r="B31" s="3"/>
@@ -871,8 +889,8 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
+    <row r="32" spans="1:9">
+      <c r="A32" s="9">
         <v>30</v>
       </c>
       <c r="B32" s="3"/>
@@ -884,8 +902,8 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
+    <row r="33" spans="1:9">
+      <c r="A33" s="9">
         <v>31</v>
       </c>
       <c r="B33" s="3"/>
@@ -897,8 +915,8 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
+    <row r="34" spans="1:9">
+      <c r="A34" s="9">
         <v>32</v>
       </c>
       <c r="B34" s="3"/>
@@ -910,8 +928,8 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
+    <row r="35" spans="1:9">
+      <c r="A35" s="9">
         <v>33</v>
       </c>
       <c r="B35" s="3"/>
@@ -923,8 +941,8 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
+    <row r="36" spans="1:9">
+      <c r="A36" s="9">
         <v>34</v>
       </c>
       <c r="B36" s="3"/>
@@ -936,8 +954,8 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
+    <row r="37" spans="1:9">
+      <c r="A37" s="9">
         <v>35</v>
       </c>
       <c r="B37" s="3"/>
@@ -949,8 +967,8 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
+    <row r="38" spans="1:9">
+      <c r="A38" s="9">
         <v>36</v>
       </c>
       <c r="B38" s="3"/>
@@ -962,8 +980,8 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
+    <row r="39" spans="1:9">
+      <c r="A39" s="9">
         <v>37</v>
       </c>
       <c r="B39" s="3"/>
@@ -975,8 +993,8 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
+    <row r="40" spans="1:9">
+      <c r="A40" s="9">
         <v>38</v>
       </c>
       <c r="B40" s="3"/>
@@ -988,8 +1006,8 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
+    <row r="41" spans="1:9">
+      <c r="A41" s="9">
         <v>39</v>
       </c>
       <c r="B41" s="3"/>
@@ -1001,8 +1019,8 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
+    <row r="42" spans="1:9">
+      <c r="A42" s="9">
         <v>40</v>
       </c>
       <c r="B42" s="3"/>
@@ -1014,8 +1032,8 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
+    <row r="43" spans="1:9">
+      <c r="A43" s="9">
         <v>41</v>
       </c>
       <c r="B43" s="3"/>
@@ -1027,8 +1045,8 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
+    <row r="44" spans="1:9">
+      <c r="A44" s="9">
         <v>42</v>
       </c>
       <c r="B44" s="3"/>
@@ -1040,8 +1058,8 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
+    <row r="45" spans="1:9">
+      <c r="A45" s="9">
         <v>43</v>
       </c>
       <c r="B45" s="3"/>
@@ -1053,8 +1071,8 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="6">
+    <row r="46" spans="1:9">
+      <c r="A46" s="9">
         <v>44</v>
       </c>
       <c r="B46" s="3"/>
@@ -1066,8 +1084,8 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
+    <row r="47" spans="1:9">
+      <c r="A47" s="9">
         <v>45</v>
       </c>
       <c r="B47" s="3"/>
@@ -1079,8 +1097,8 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
+    <row r="48" spans="1:9">
+      <c r="A48" s="9">
         <v>46</v>
       </c>
       <c r="B48" s="3"/>
@@ -1092,8 +1110,8 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
+    <row r="49" spans="1:9">
+      <c r="A49" s="9">
         <v>47</v>
       </c>
       <c r="B49" s="3"/>
@@ -1105,8 +1123,8 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
+    <row r="50" spans="1:9">
+      <c r="A50" s="9">
         <v>48</v>
       </c>
       <c r="B50" s="3"/>
@@ -1118,8 +1136,8 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="6">
+    <row r="51" spans="1:9">
+      <c r="A51" s="9">
         <v>49</v>
       </c>
       <c r="B51" s="3"/>
@@ -1131,8 +1149,8 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="6">
+    <row r="52" spans="1:9">
+      <c r="A52" s="9">
         <v>50</v>
       </c>
       <c r="B52" s="3"/>
@@ -1144,8 +1162,8 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="6">
+    <row r="53" spans="1:9">
+      <c r="A53" s="9">
         <v>51</v>
       </c>
       <c r="B53" s="3"/>
@@ -1157,8 +1175,8 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="6">
+    <row r="54" spans="1:9">
+      <c r="A54" s="9">
         <v>52</v>
       </c>
       <c r="B54" s="3"/>
@@ -1170,8 +1188,8 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="6">
+    <row r="55" spans="1:9">
+      <c r="A55" s="9">
         <v>53</v>
       </c>
       <c r="B55" s="3"/>
@@ -1183,8 +1201,8 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="6">
+    <row r="56" spans="1:9">
+      <c r="A56" s="9">
         <v>54</v>
       </c>
       <c r="B56" s="3"/>
@@ -1196,8 +1214,8 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="6">
+    <row r="57" spans="1:9">
+      <c r="A57" s="9">
         <v>55</v>
       </c>
       <c r="B57" s="3"/>
@@ -1209,8 +1227,8 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="6">
+    <row r="58" spans="1:9">
+      <c r="A58" s="9">
         <v>56</v>
       </c>
       <c r="B58" s="3"/>
@@ -1222,8 +1240,8 @@
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="6">
+    <row r="59" spans="1:9">
+      <c r="A59" s="9">
         <v>57</v>
       </c>
       <c r="B59" s="3"/>
@@ -1235,8 +1253,8 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="6">
+    <row r="60" spans="1:9">
+      <c r="A60" s="9">
         <v>58</v>
       </c>
       <c r="B60" s="3"/>
@@ -1248,8 +1266,8 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="6">
+    <row r="61" spans="1:9">
+      <c r="A61" s="9">
         <v>59</v>
       </c>
       <c r="B61" s="3"/>
@@ -1261,8 +1279,8 @@
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="6">
+    <row r="62" spans="1:9">
+      <c r="A62" s="9">
         <v>60</v>
       </c>
       <c r="B62" s="3"/>
@@ -1274,8 +1292,8 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="6">
+    <row r="63" spans="1:9">
+      <c r="A63" s="9">
         <v>61</v>
       </c>
       <c r="B63" s="3"/>
@@ -1287,8 +1305,8 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="6">
+    <row r="64" spans="1:9">
+      <c r="A64" s="9">
         <v>62</v>
       </c>
       <c r="B64" s="3"/>
@@ -1300,8 +1318,8 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="6">
+    <row r="65" spans="1:9">
+      <c r="A65" s="9">
         <v>63</v>
       </c>
       <c r="B65" s="3"/>
@@ -1313,8 +1331,8 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="6">
+    <row r="66" spans="1:9">
+      <c r="A66" s="9">
         <v>64</v>
       </c>
       <c r="B66" s="3"/>
@@ -1326,8 +1344,8 @@
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="6">
+    <row r="67" spans="1:9">
+      <c r="A67" s="9">
         <v>65</v>
       </c>
       <c r="B67" s="3"/>
@@ -1339,8 +1357,8 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="6">
+    <row r="68" spans="1:9">
+      <c r="A68" s="9">
         <v>66</v>
       </c>
       <c r="B68" s="3"/>
@@ -1352,8 +1370,8 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="6">
+    <row r="69" spans="1:9">
+      <c r="A69" s="9">
         <v>67</v>
       </c>
       <c r="B69" s="3"/>
@@ -1365,8 +1383,8 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="6">
+    <row r="70" spans="1:9">
+      <c r="A70" s="9">
         <v>68</v>
       </c>
       <c r="B70" s="3"/>
@@ -1378,8 +1396,8 @@
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="6">
+    <row r="71" spans="1:9">
+      <c r="A71" s="9">
         <v>69</v>
       </c>
       <c r="B71" s="3"/>
@@ -1391,8 +1409,8 @@
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="6">
+    <row r="72" spans="1:9">
+      <c r="A72" s="9">
         <v>70</v>
       </c>
       <c r="B72" s="3"/>
@@ -1404,8 +1422,8 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="6">
+    <row r="73" spans="1:9">
+      <c r="A73" s="9">
         <v>71</v>
       </c>
       <c r="B73" s="3"/>
@@ -1417,8 +1435,8 @@
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="6">
+    <row r="74" spans="1:9">
+      <c r="A74" s="9">
         <v>72</v>
       </c>
       <c r="B74" s="3"/>
@@ -1430,8 +1448,8 @@
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="6">
+    <row r="75" spans="1:9">
+      <c r="A75" s="9">
         <v>73</v>
       </c>
       <c r="B75" s="3"/>
@@ -1443,8 +1461,8 @@
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="6">
+    <row r="76" spans="1:9">
+      <c r="A76" s="9">
         <v>74</v>
       </c>
       <c r="B76" s="3"/>
@@ -1456,8 +1474,8 @@
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="6">
+    <row r="77" spans="1:9">
+      <c r="A77" s="9">
         <v>75</v>
       </c>
       <c r="B77" s="3"/>
@@ -1469,8 +1487,8 @@
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="6">
+    <row r="78" spans="1:9">
+      <c r="A78" s="9">
         <v>76</v>
       </c>
       <c r="B78" s="3"/>
@@ -1482,8 +1500,8 @@
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="6">
+    <row r="79" spans="1:9">
+      <c r="A79" s="9">
         <v>77</v>
       </c>
       <c r="B79" s="3"/>
@@ -1495,8 +1513,8 @@
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="6">
+    <row r="80" spans="1:9">
+      <c r="A80" s="9">
         <v>78</v>
       </c>
       <c r="B80" s="3"/>
@@ -1508,8 +1526,8 @@
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="6">
+    <row r="81" spans="1:9">
+      <c r="A81" s="9">
         <v>79</v>
       </c>
       <c r="B81" s="3"/>
@@ -1521,8 +1539,8 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="6">
+    <row r="82" spans="1:9">
+      <c r="A82" s="9">
         <v>80</v>
       </c>
       <c r="B82" s="3"/>
@@ -1534,8 +1552,8 @@
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="6">
+    <row r="83" spans="1:9">
+      <c r="A83" s="9">
         <v>81</v>
       </c>
       <c r="B83" s="3"/>
@@ -1547,8 +1565,8 @@
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="6">
+    <row r="84" spans="1:9">
+      <c r="A84" s="9">
         <v>82</v>
       </c>
       <c r="B84" s="3"/>
@@ -1560,8 +1578,8 @@
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="6">
+    <row r="85" spans="1:9">
+      <c r="A85" s="9">
         <v>83</v>
       </c>
       <c r="B85" s="3"/>
@@ -1573,8 +1591,8 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="6">
+    <row r="86" spans="1:9">
+      <c r="A86" s="9">
         <v>84</v>
       </c>
       <c r="B86" s="3"/>
@@ -1586,8 +1604,8 @@
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="6">
+    <row r="87" spans="1:9">
+      <c r="A87" s="9">
         <v>85</v>
       </c>
       <c r="B87" s="3"/>
@@ -1599,8 +1617,8 @@
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="6">
+    <row r="88" spans="1:9">
+      <c r="A88" s="9">
         <v>86</v>
       </c>
       <c r="B88" s="3"/>
@@ -1612,8 +1630,8 @@
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="6">
+    <row r="89" spans="1:9">
+      <c r="A89" s="9">
         <v>87</v>
       </c>
       <c r="B89" s="3"/>
@@ -1625,8 +1643,8 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="6">
+    <row r="90" spans="1:9">
+      <c r="A90" s="9">
         <v>88</v>
       </c>
       <c r="B90" s="3"/>
@@ -1638,8 +1656,8 @@
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="6">
+    <row r="91" spans="1:9">
+      <c r="A91" s="9">
         <v>89</v>
       </c>
       <c r="B91" s="3"/>
@@ -1651,8 +1669,8 @@
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="6">
+    <row r="92" spans="1:9">
+      <c r="A92" s="9">
         <v>90</v>
       </c>
       <c r="B92" s="3"/>
@@ -1664,8 +1682,8 @@
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="6">
+    <row r="93" spans="1:9">
+      <c r="A93" s="9">
         <v>91</v>
       </c>
       <c r="B93" s="3"/>
@@ -1677,8 +1695,8 @@
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="6">
+    <row r="94" spans="1:9">
+      <c r="A94" s="9">
         <v>92</v>
       </c>
       <c r="B94" s="3"/>
@@ -1690,8 +1708,8 @@
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="6">
+    <row r="95" spans="1:9">
+      <c r="A95" s="9">
         <v>93</v>
       </c>
       <c r="B95" s="3"/>
@@ -1703,8 +1721,8 @@
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="6">
+    <row r="96" spans="1:9">
+      <c r="A96" s="9">
         <v>94</v>
       </c>
       <c r="B96" s="3"/>
@@ -1716,8 +1734,8 @@
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="6">
+    <row r="97" spans="1:9">
+      <c r="A97" s="9">
         <v>95</v>
       </c>
       <c r="B97" s="3"/>
@@ -1729,8 +1747,8 @@
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="6">
+    <row r="98" spans="1:9">
+      <c r="A98" s="9">
         <v>96</v>
       </c>
       <c r="B98" s="3"/>
@@ -1742,8 +1760,8 @@
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="6">
+    <row r="99" spans="1:9">
+      <c r="A99" s="9">
         <v>97</v>
       </c>
       <c r="B99" s="3"/>
@@ -1755,8 +1773,8 @@
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="6">
+    <row r="100" spans="1:9">
+      <c r="A100" s="9">
         <v>98</v>
       </c>
       <c r="B100" s="3"/>
@@ -1768,8 +1786,8 @@
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="6">
+    <row r="101" spans="1:9">
+      <c r="A101" s="9">
         <v>99</v>
       </c>
       <c r="B101" s="3"/>
@@ -1781,8 +1799,8 @@
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="6">
+    <row r="102" spans="1:9">
+      <c r="A102" s="9">
         <v>100</v>
       </c>
       <c r="B102" s="3"/>
@@ -1793,6 +1811,1306 @@
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="9">
+        <v>101</v>
+      </c>
+      <c r="B103" s="3"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="9">
+        <v>102</v>
+      </c>
+      <c r="B104" s="3"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="9">
+        <v>103</v>
+      </c>
+      <c r="B105" s="3"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="9">
+        <v>104</v>
+      </c>
+      <c r="B106" s="3"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="9">
+        <v>105</v>
+      </c>
+      <c r="B107" s="3"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="9">
+        <v>106</v>
+      </c>
+      <c r="B108" s="3"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="9">
+        <v>107</v>
+      </c>
+      <c r="B109" s="3"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="9">
+        <v>108</v>
+      </c>
+      <c r="B110" s="3"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="9">
+        <v>109</v>
+      </c>
+      <c r="B111" s="3"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="9">
+        <v>110</v>
+      </c>
+      <c r="B112" s="3"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="9">
+        <v>111</v>
+      </c>
+      <c r="B113" s="3"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="9">
+        <v>112</v>
+      </c>
+      <c r="B114" s="3"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="9">
+        <v>113</v>
+      </c>
+      <c r="B115" s="3"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="9">
+        <v>114</v>
+      </c>
+      <c r="B116" s="3"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="9">
+        <v>115</v>
+      </c>
+      <c r="B117" s="3"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="9">
+        <v>116</v>
+      </c>
+      <c r="B118" s="3"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="9">
+        <v>117</v>
+      </c>
+      <c r="B119" s="3"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="9">
+        <v>118</v>
+      </c>
+      <c r="B120" s="3"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="9">
+        <v>119</v>
+      </c>
+      <c r="B121" s="3"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="9">
+        <v>120</v>
+      </c>
+      <c r="B122" s="3"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="9">
+        <v>121</v>
+      </c>
+      <c r="B123" s="3"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="9">
+        <v>122</v>
+      </c>
+      <c r="B124" s="3"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="9">
+        <v>123</v>
+      </c>
+      <c r="B125" s="3"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="9">
+        <v>124</v>
+      </c>
+      <c r="B126" s="3"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="9">
+        <v>125</v>
+      </c>
+      <c r="B127" s="3"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="9">
+        <v>126</v>
+      </c>
+      <c r="B128" s="3"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="9">
+        <v>127</v>
+      </c>
+      <c r="B129" s="3"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="9">
+        <v>128</v>
+      </c>
+      <c r="B130" s="3"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="9">
+        <v>129</v>
+      </c>
+      <c r="B131" s="3"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="9">
+        <v>130</v>
+      </c>
+      <c r="B132" s="3"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="9">
+        <v>131</v>
+      </c>
+      <c r="B133" s="3"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="9">
+        <v>132</v>
+      </c>
+      <c r="B134" s="3"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="9">
+        <v>133</v>
+      </c>
+      <c r="B135" s="3"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="9">
+        <v>134</v>
+      </c>
+      <c r="B136" s="3"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="9">
+        <v>135</v>
+      </c>
+      <c r="B137" s="3"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="9">
+        <v>136</v>
+      </c>
+      <c r="B138" s="3"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="9">
+        <v>137</v>
+      </c>
+      <c r="B139" s="3"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="9">
+        <v>138</v>
+      </c>
+      <c r="B140" s="3"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="9">
+        <v>139</v>
+      </c>
+      <c r="B141" s="3"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="9">
+        <v>140</v>
+      </c>
+      <c r="B142" s="3"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="9">
+        <v>141</v>
+      </c>
+      <c r="B143" s="3"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="9">
+        <v>142</v>
+      </c>
+      <c r="B144" s="3"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="9">
+        <v>143</v>
+      </c>
+      <c r="B145" s="3"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="9">
+        <v>144</v>
+      </c>
+      <c r="B146" s="3"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="9">
+        <v>145</v>
+      </c>
+      <c r="B147" s="3"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="9">
+        <v>146</v>
+      </c>
+      <c r="B148" s="3"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="9">
+        <v>147</v>
+      </c>
+      <c r="B149" s="3"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="9">
+        <v>148</v>
+      </c>
+      <c r="B150" s="3"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="9">
+        <v>149</v>
+      </c>
+      <c r="B151" s="3"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="9">
+        <v>150</v>
+      </c>
+      <c r="B152" s="3"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="9">
+        <v>151</v>
+      </c>
+      <c r="B153" s="3"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="9">
+        <v>152</v>
+      </c>
+      <c r="B154" s="3"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="9">
+        <v>153</v>
+      </c>
+      <c r="B155" s="3"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="9">
+        <v>154</v>
+      </c>
+      <c r="B156" s="3"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="9">
+        <v>155</v>
+      </c>
+      <c r="B157" s="3"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="9">
+        <v>156</v>
+      </c>
+      <c r="B158" s="3"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="9">
+        <v>157</v>
+      </c>
+      <c r="B159" s="3"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="9">
+        <v>158</v>
+      </c>
+      <c r="B160" s="3"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="9">
+        <v>159</v>
+      </c>
+      <c r="B161" s="3"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2"/>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="9">
+        <v>160</v>
+      </c>
+      <c r="B162" s="3"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="9">
+        <v>161</v>
+      </c>
+      <c r="B163" s="3"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="9">
+        <v>162</v>
+      </c>
+      <c r="B164" s="3"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="9">
+        <v>163</v>
+      </c>
+      <c r="B165" s="3"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="9">
+        <v>164</v>
+      </c>
+      <c r="B166" s="3"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="9">
+        <v>165</v>
+      </c>
+      <c r="B167" s="3"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="9">
+        <v>166</v>
+      </c>
+      <c r="B168" s="3"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="9">
+        <v>167</v>
+      </c>
+      <c r="B169" s="3"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="9">
+        <v>168</v>
+      </c>
+      <c r="B170" s="3"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="9">
+        <v>169</v>
+      </c>
+      <c r="B171" s="3"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="9">
+        <v>170</v>
+      </c>
+      <c r="B172" s="3"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
+      <c r="I172" s="2"/>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="9">
+        <v>171</v>
+      </c>
+      <c r="B173" s="3"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" s="9">
+        <v>172</v>
+      </c>
+      <c r="B174" s="3"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="9">
+        <v>173</v>
+      </c>
+      <c r="B175" s="3"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="9">
+        <v>174</v>
+      </c>
+      <c r="B176" s="3"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="9">
+        <v>175</v>
+      </c>
+      <c r="B177" s="3"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+      <c r="I177" s="2"/>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" s="9">
+        <v>176</v>
+      </c>
+      <c r="B178" s="3"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" s="9">
+        <v>177</v>
+      </c>
+      <c r="B179" s="3"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+      <c r="I179" s="2"/>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" s="9">
+        <v>178</v>
+      </c>
+      <c r="B180" s="3"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="2"/>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" s="9">
+        <v>179</v>
+      </c>
+      <c r="B181" s="3"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="9">
+        <v>180</v>
+      </c>
+      <c r="B182" s="3"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" s="9">
+        <v>181</v>
+      </c>
+      <c r="B183" s="3"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" s="9">
+        <v>182</v>
+      </c>
+      <c r="B184" s="3"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="2"/>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" s="9">
+        <v>183</v>
+      </c>
+      <c r="B185" s="3"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="9">
+        <v>184</v>
+      </c>
+      <c r="B186" s="3"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2"/>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" s="9">
+        <v>185</v>
+      </c>
+      <c r="B187" s="3"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" s="9">
+        <v>186</v>
+      </c>
+      <c r="B188" s="3"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="2"/>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="9">
+        <v>187</v>
+      </c>
+      <c r="B189" s="3"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="2"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="2"/>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="9">
+        <v>188</v>
+      </c>
+      <c r="B190" s="3"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
+      <c r="G190" s="2"/>
+      <c r="H190" s="2"/>
+      <c r="I190" s="2"/>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="9">
+        <v>189</v>
+      </c>
+      <c r="B191" s="3"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" s="9">
+        <v>190</v>
+      </c>
+      <c r="B192" s="3"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="2"/>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" s="9">
+        <v>191</v>
+      </c>
+      <c r="B193" s="3"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" s="9">
+        <v>192</v>
+      </c>
+      <c r="B194" s="3"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="2"/>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" s="9">
+        <v>193</v>
+      </c>
+      <c r="B195" s="3"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" s="9">
+        <v>194</v>
+      </c>
+      <c r="B196" s="3"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="2"/>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" s="9">
+        <v>195</v>
+      </c>
+      <c r="B197" s="3"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" s="9">
+        <v>196</v>
+      </c>
+      <c r="B198" s="3"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
+      <c r="G198" s="2"/>
+      <c r="H198" s="2"/>
+      <c r="I198" s="2"/>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" s="9">
+        <v>197</v>
+      </c>
+      <c r="B199" s="3"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="2"/>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" s="9">
+        <v>198</v>
+      </c>
+      <c r="B200" s="3"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" s="9">
+        <v>199</v>
+      </c>
+      <c r="B201" s="3"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="2"/>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" s="9">
+        <v>200</v>
+      </c>
+      <c r="B202" s="3"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+      <c r="I202" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
